--- a/biology/Biochimie/Porphine/Porphine.xlsx
+++ b/biology/Biochimie/Porphine/Porphine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La porphine est un composé organique de formule brute C20H14N4. Il s'agit d'un macrocycle aromatique constitué de quatre pyrroles liés en cercle par quatre ponts méthine. La présence d'atomes de carbone ayant une hybridation sp2 sur toute la circonférence du macrocycle forme un système conjugué de doubles liaisons qui confère à l'ensemble de la structure son caractère aromatique. La résonance de la porphine peut être représentée par le diagramme ci-dessous :
